--- a/original_dataset.xlsx
+++ b/original_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artijain/Documents/18-789DeepGenerativeModeling/connections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EADFDB8-BE70-314F-8E89-16A7B9BD3847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B843E72-D0AE-0F49-A4BA-F88D47E1201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>"touch lightly"</t>
   </si>
   <si>
-    <t>"These are my four associated words: egg, goad, sput, urge"</t>
-  </si>
-  <si>
     <t>"encourage"</t>
   </si>
   <si>
@@ -1631,6 +1628,9 @@
   </si>
   <si>
     <t>CONNECTION GROUPS</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: egg, goad, spur, urge"</t>
   </si>
 </sst>
 </file>
@@ -1649,24 +1649,28 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1677,11 +1681,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1959,7 +1965,7 @@
   <dimension ref="A1:Z275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1969,7 +1975,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -2113,383 +2119,383 @@
     </row>
     <row r="16" spans="1:26" ht="13">
       <c r="A16" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13">
       <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="13">
       <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13">
       <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13">
       <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13">
       <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="13">
       <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13">
       <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13">
       <c r="A24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="13">
       <c r="A25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13">
       <c r="A26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="13">
       <c r="A27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13">
       <c r="A28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="13">
       <c r="A29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13">
       <c r="A30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="13">
       <c r="A31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13">
       <c r="A32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13">
       <c r="A33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="13">
       <c r="A34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="13">
       <c r="A35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="13">
       <c r="A36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="13">
       <c r="A37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="13">
       <c r="A38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="13">
       <c r="A39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="13">
       <c r="A40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="13">
       <c r="A41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="13">
       <c r="A42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="13">
       <c r="A43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="13">
       <c r="A44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="13">
       <c r="A45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="13">
       <c r="A46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="13">
       <c r="A47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="13">
       <c r="A48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="13">
       <c r="A49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="13">
       <c r="A50" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="13">
       <c r="A51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="13">
       <c r="A52" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="13">
       <c r="A53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="13">
       <c r="A54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="13">
       <c r="A55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="13">
       <c r="A56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="13">
       <c r="A57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="13">
       <c r="A58" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="13">
       <c r="A59" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="13">
       <c r="A60" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="13">
       <c r="A61" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="13">
       <c r="A62" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="13">
       <c r="A63" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>1</v>
@@ -2497,439 +2503,439 @@
     </row>
     <row r="64" spans="1:2" ht="13">
       <c r="A64" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="13">
       <c r="A65" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="13">
       <c r="A66" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="13">
       <c r="A67" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="13">
       <c r="A68" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="13">
       <c r="A69" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="13">
       <c r="A70" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="13">
       <c r="A71" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="13">
       <c r="A72" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="13">
       <c r="A73" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="13">
       <c r="A74" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="13">
       <c r="A75" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="13">
       <c r="A76" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="13">
       <c r="A77" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="13">
       <c r="A78" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="13">
       <c r="A79" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="13">
       <c r="A80" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="13">
       <c r="A81" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="13">
       <c r="A82" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="13">
       <c r="A83" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="13">
       <c r="A84" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="13">
       <c r="A85" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="13">
       <c r="A86" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="13">
       <c r="A87" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="13">
       <c r="A88" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="13">
       <c r="A89" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="13">
       <c r="A90" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="13">
       <c r="A91" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="13">
       <c r="A92" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="13">
       <c r="A93" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="13">
       <c r="A94" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="13">
       <c r="A95" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="13">
       <c r="A96" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13">
       <c r="A97" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="13">
       <c r="A98" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="13">
       <c r="A99" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="13">
       <c r="A100" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="13">
       <c r="A101" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="13">
       <c r="A102" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="13">
       <c r="A103" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="13">
       <c r="A104" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="13">
       <c r="A105" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="13">
       <c r="A106" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="13">
       <c r="A107" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="13">
       <c r="A108" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="13">
       <c r="A109" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="13">
       <c r="A110" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="13">
       <c r="A111" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="13">
       <c r="A112" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="13">
       <c r="A113" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="13">
       <c r="A114" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="13">
       <c r="A115" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="13">
       <c r="A116" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="13">
       <c r="A117" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="13">
       <c r="A118" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>1</v>
@@ -2937,431 +2943,431 @@
     </row>
     <row r="119" spans="1:2" ht="13">
       <c r="A119" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="13">
       <c r="A120" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="13">
       <c r="A121" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="13">
       <c r="A122" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="13">
       <c r="A123" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="14.25" customHeight="1">
       <c r="A124" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="14.25" customHeight="1">
       <c r="A125" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="14.25" customHeight="1">
       <c r="A126" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="14.25" customHeight="1">
       <c r="A127" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="14.25" customHeight="1">
       <c r="A128" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="14.25" customHeight="1">
       <c r="A129" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="14.25" customHeight="1">
       <c r="A130" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="14.25" customHeight="1">
       <c r="A131" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="14.25" customHeight="1">
       <c r="A132" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="14.25" customHeight="1">
       <c r="A133" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="14.25" customHeight="1">
       <c r="A134" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="14.25" customHeight="1">
       <c r="A135" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="14.25" customHeight="1">
       <c r="A136" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="14.25" customHeight="1">
       <c r="A137" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="14.25" customHeight="1">
       <c r="A138" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="14.25" customHeight="1">
       <c r="A139" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="14.25" customHeight="1">
       <c r="A140" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="14.25" customHeight="1">
       <c r="A141" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="14.25" customHeight="1">
       <c r="A142" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="14.25" customHeight="1">
       <c r="A143" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="14.25" customHeight="1">
       <c r="A144" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="14.25" customHeight="1">
       <c r="A145" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="14.25" customHeight="1">
       <c r="A146" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="14.25" customHeight="1">
       <c r="A147" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="14.25" customHeight="1">
       <c r="A148" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="14.25" customHeight="1">
       <c r="A149" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="14.25" customHeight="1">
       <c r="A150" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="14.25" customHeight="1">
       <c r="A151" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="14.25" customHeight="1">
       <c r="A152" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="14.25" customHeight="1">
       <c r="A153" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="14.25" customHeight="1">
       <c r="A154" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="14.25" customHeight="1">
       <c r="A155" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="14.25" customHeight="1">
       <c r="A156" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="14.25" customHeight="1">
       <c r="A157" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="14.25" customHeight="1">
       <c r="A158" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="14.25" customHeight="1">
       <c r="A159" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="14.25" customHeight="1">
       <c r="A160" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="14.25" customHeight="1">
       <c r="A161" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="14.25" customHeight="1">
       <c r="A162" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="14.25" customHeight="1">
       <c r="A163" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="14.25" customHeight="1">
       <c r="A164" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="14.25" customHeight="1">
       <c r="A165" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="14.25" customHeight="1">
       <c r="A166" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="14.25" customHeight="1">
       <c r="A167" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="14.25" customHeight="1">
       <c r="A168" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="14.25" customHeight="1">
       <c r="A169" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="14.25" customHeight="1">
       <c r="A170" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="14.25" customHeight="1">
       <c r="A171" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="13">
       <c r="A172" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>1</v>
@@ -3369,407 +3375,407 @@
     </row>
     <row r="173" spans="1:2" ht="13">
       <c r="A173" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="13">
       <c r="A174" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="13">
       <c r="A175" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="13">
       <c r="A176" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="13">
       <c r="A177" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="13">
       <c r="A178" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="13">
       <c r="A179" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="13">
       <c r="A180" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="13">
       <c r="A181" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="13">
       <c r="A182" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B182" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="13">
       <c r="A183" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="13">
       <c r="A184" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="13">
       <c r="A185" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="13">
       <c r="A186" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="13">
       <c r="A187" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="13">
       <c r="A188" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="13">
       <c r="A189" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="13">
       <c r="A190" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="13">
       <c r="A191" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="13">
       <c r="A192" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="13">
       <c r="A193" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="13">
       <c r="A194" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="13">
       <c r="A195" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="13">
       <c r="A196" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="13">
       <c r="A197" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="13">
       <c r="A198" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B198" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="13">
       <c r="A199" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="13">
       <c r="A200" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="13">
       <c r="A201" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B201" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="13">
       <c r="A202" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="13">
       <c r="A203" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B203" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="13">
       <c r="A204" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B204" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="13">
       <c r="A205" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="13">
       <c r="A206" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B206" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="13">
       <c r="A207" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="13">
       <c r="A208" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B208" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="13">
       <c r="A209" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B209" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="13">
       <c r="A210" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B210" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="13">
       <c r="A211" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="13">
       <c r="A212" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B212" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="13">
       <c r="A213" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B213" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="13">
       <c r="A214" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B214" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="13">
       <c r="A215" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B215" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="13">
       <c r="A216" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B216" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="13">
       <c r="A217" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="13">
       <c r="A218" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B218" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="13">
       <c r="A219" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B219" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="13">
       <c r="A220" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="13">
       <c r="A221" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="13">
       <c r="A222" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B222" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="13">
       <c r="A223" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>1</v>
@@ -3777,418 +3783,418 @@
     </row>
     <row r="224" spans="1:2" ht="13">
       <c r="A224" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B224" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="13">
       <c r="A225" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B225" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="13">
       <c r="A226" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B226" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="13">
       <c r="A227" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B227" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="13">
       <c r="A228" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B228" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="13">
       <c r="A229" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B229" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="13">
       <c r="A230" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B230" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="13">
       <c r="A231" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B231" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="13">
       <c r="A232" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B232" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="13">
       <c r="A233" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B233" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="13">
       <c r="A234" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B234" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="13">
       <c r="A235" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B235" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="13">
       <c r="A236" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B236" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="13">
       <c r="A237" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B237" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="13">
       <c r="A238" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B238" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="13">
       <c r="A239" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B239" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="13">
       <c r="A240" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B240" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="13">
       <c r="A241" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B241" s="3" t="s">
         <v>466</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="13">
       <c r="A242" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B242" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="13">
       <c r="A243" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B243" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="13">
       <c r="A244" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B244" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="13">
       <c r="A245" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B245" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="13">
       <c r="A246" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B246" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="13">
       <c r="A247" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B247" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="13">
       <c r="A248" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B248" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="13">
       <c r="A249" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B249" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="13">
       <c r="A250" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B250" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="13">
       <c r="A251" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B251" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="13">
       <c r="A252" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B252" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="13">
       <c r="A253" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B253" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="13">
       <c r="A254" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="13">
       <c r="A255" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B255" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="13">
       <c r="A256" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B256" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="13">
       <c r="A257" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B257" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="13">
       <c r="A258" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B258" s="3" t="s">
         <v>500</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="13">
       <c r="A259" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B259" s="3" t="s">
         <v>502</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="13">
       <c r="A260" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="13">
       <c r="A261" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="13">
       <c r="A262" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B262" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="13">
       <c r="A263" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="13">
       <c r="A264" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B264" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="13">
       <c r="A265" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B265" s="3" t="s">
         <v>514</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="13">
       <c r="A266" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B266" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="13">
       <c r="A267" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B267" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="13">
       <c r="A268" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B268" s="3" t="s">
         <v>520</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="13">
       <c r="A269" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B269" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="13">
       <c r="A270" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B270" s="3" t="s">
         <v>524</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="13">
       <c r="A271" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B271" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="13">
       <c r="A272" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B272" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="13">
       <c r="A273" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B273" s="3" t="s">
         <v>530</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="13">
       <c r="A274" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B274" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="13">
       <c r="A275" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B275" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
   </sheetData>

--- a/original_dataset.xlsx
+++ b/original_dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artijain/Documents/18-789DeepGenerativeModeling/connections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B843E72-D0AE-0F49-A4BA-F88D47E1201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80514AE-BDD6-8A42-8ABF-9B4D37AF1FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="611">
   <si>
     <t>SYNONYMS</t>
   </si>
@@ -388,9 +388,6 @@
     <t>"80's fashion trends"</t>
   </si>
   <si>
-    <t>"These are my four associated words: hancock, holiday, monk, parker</t>
-  </si>
-  <si>
     <t>"jazz legends"</t>
   </si>
   <si>
@@ -418,36 +415,21 @@
     <t>"featured in Snow White"</t>
   </si>
   <si>
-    <t>"These are my four associated words: ALPHABET, AMAZON, APPLE, META</t>
-  </si>
-  <si>
     <t>"tech companies"</t>
   </si>
   <si>
-    <t>"These are my four associated words: BAD, FLY, FRESH, RAD</t>
-  </si>
-  <si>
     <t>"'cool', in 80s slang"</t>
   </si>
   <si>
     <t>"These are my four associated words: HANCOCK, HOLIDAY, MONK, PARKER"</t>
   </si>
   <si>
-    <t>"These are my four associated words: ANGEL, CLOWN, PIRATE, WITCH</t>
-  </si>
-  <si>
     <t>"classic halloween costumes"</t>
   </si>
   <si>
-    <t>"These are my four associated words: CROWN, ROBE, TABLET, TORCH</t>
-  </si>
-  <si>
     <t>"statue of liberty features"</t>
   </si>
   <si>
-    <t>"These are my four associated words: CAPITOL, COLUMBIA, VIRGIN, ISLAND</t>
-  </si>
-  <si>
     <t>"record labels"</t>
   </si>
   <si>
@@ -481,9 +463,6 @@
     <t>"airlines"</t>
   </si>
   <si>
-    <t>"These are my four associated words: BANNER, PRINCE, STARK, WAYNE</t>
-  </si>
-  <si>
     <t>"superhero last names"</t>
   </si>
   <si>
@@ -499,9 +478,6 @@
     <t>"fairy tale figures"</t>
   </si>
   <si>
-    <t>"These are my four associated words: BIRDS, NOTORIOUS, REBECCA, ROPE</t>
-  </si>
-  <si>
     <t>"hitchcock movies"</t>
   </si>
   <si>
@@ -535,33 +511,18 @@
     <t>"american poets"</t>
   </si>
   <si>
-    <t>"These are my four associated words: ALONE, CATFISH, CHOPPED, SURVIVOR</t>
-  </si>
-  <si>
     <t>"reality shows"</t>
   </si>
   <si>
-    <t>"These are my four associated words: FLOSS, ROBOT, VOGUE, WORM</t>
-  </si>
-  <si>
     <t>"dance moves"</t>
   </si>
   <si>
-    <t>"These are my four associated words: FORD, GRANT, LINCOLN, WILSON</t>
-  </si>
-  <si>
     <t>"presidents"</t>
   </si>
   <si>
-    <t>"These are my four associated words: RADIOLAB, SERIAL, UP FIRST, WTF</t>
-  </si>
-  <si>
     <t>"podcasts"</t>
   </si>
   <si>
-    <t>"These are my four associated words: ASTER, CARPENTER, CRAVEN, WAN</t>
-  </si>
-  <si>
     <t>"horror directors"</t>
   </si>
   <si>
@@ -655,15 +616,9 @@
     <t>"cities beginning with L"</t>
   </si>
   <si>
-    <t>"These are my four associated words: CREATOR, DUDE, RAPPER, STALLION</t>
-  </si>
-  <si>
     <t>"the(e) rappers"</t>
   </si>
   <si>
-    <t>"These are my four associated words: ACTION, CAMERA, CUT, LIGHTS</t>
-  </si>
-  <si>
     <t>"film set directives"</t>
   </si>
   <si>
@@ -673,9 +628,6 @@
     <t>"bible books"</t>
   </si>
   <si>
-    <t>"These are my four associated words: FLAMES, KRAKEN, STARS, WILD</t>
-  </si>
-  <si>
     <t>"NHL teams"</t>
   </si>
   <si>
@@ -691,9 +643,6 @@
     <t>"hudsons"</t>
   </si>
   <si>
-    <t>"These are my four associated words: BATH, DERBY, READING, SANDWICH</t>
-  </si>
-  <si>
     <t>"cities and towns in England"</t>
   </si>
   <si>
@@ -1186,9 +1135,6 @@
     <t>"silent 'L'"</t>
   </si>
   <si>
-    <t>"These are my four associated words: AUNT, BEATLE, FLEE, NAT</t>
-  </si>
-  <si>
     <t>"Insect homophones"</t>
   </si>
   <si>
@@ -1525,9 +1471,6 @@
     <t>"league"</t>
   </si>
   <si>
-    <t>"These are my four associated words: BACHELOR, LILY, MAXI, MOUSE</t>
-  </si>
-  <si>
     <t>"pad"</t>
   </si>
   <si>
@@ -1537,15 +1480,9 @@
     <t>"day holidays"</t>
   </si>
   <si>
-    <t>"These are my four associated words: DANE, LAKE, SEAL, WHITE</t>
-  </si>
-  <si>
     <t>"great"</t>
   </si>
   <si>
-    <t>"These are my four associated words: ADAM, CARPENTER, FIRE, RED</t>
-  </si>
-  <si>
     <t>"ant"</t>
   </si>
   <si>
@@ -1555,75 +1492,39 @@
     <t>"get a"</t>
   </si>
   <si>
-    <t>"These are my four associated words: BLACK, DIVINE, PROP, SKETCH</t>
-  </si>
-  <si>
     <t>"comedy"</t>
   </si>
   <si>
-    <t>"These are my four associated words: FAMILY, FLUSH, JELLY, WE</t>
-  </si>
-  <si>
     <t>"royal"</t>
   </si>
   <si>
-    <t>"These are my four associated words: DUST, LIFE, SPORTS, YELLOW</t>
-  </si>
-  <si>
     <t>"jacket"</t>
   </si>
   <si>
-    <t>"These are my four associated words: BELLY, HOT, PANIC, SNOOZE</t>
-  </si>
-  <si>
     <t>"button"</t>
   </si>
   <si>
-    <t>"These are my four associated words: BLUE, HARVEST, NEW, SAILOR</t>
-  </si>
-  <si>
     <t>"moon"</t>
   </si>
   <si>
-    <t>"These are my four associated words: CORN, COUGH, MAPLE, SIMPLE</t>
-  </si>
-  <si>
     <t>"syrup"</t>
   </si>
   <si>
-    <t>"These are my four associated words: CANDY, COPY, KNOCKS, SELTZER</t>
-  </si>
-  <si>
     <t>"hard"</t>
   </si>
   <si>
-    <t>"These are my four associated words: GOOD, IMPOSSIBLE, NOTHING, WARREN</t>
-  </si>
-  <si>
     <t>"burger"</t>
   </si>
   <si>
-    <t>"These are my four associated words: FASHION, FOOD, FORWARD, FRIENDS</t>
-  </si>
-  <si>
     <t>"fast"</t>
   </si>
   <si>
-    <t>"These are my four associated words: BOTTOM, CANDY, GARDEN, STAR</t>
-  </si>
-  <si>
     <t>"rock"</t>
   </si>
   <si>
-    <t>"These are my four associated words: CAT, CHANCE, LIP, TUESDAY</t>
-  </si>
-  <si>
     <t>"fat"</t>
   </si>
   <si>
-    <t>"These are my four associated words: BUTCHER, SCRAP, TOILET, WAX</t>
-  </si>
-  <si>
     <t>"paper"</t>
   </si>
   <si>
@@ -1631,6 +1532,327 @@
   </si>
   <si>
     <t>"These are my four associated words: egg, goad, spur, urge"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: affect, airs, charade, front"</t>
+  </si>
+  <si>
+    <t>"pretense"</t>
+  </si>
+  <si>
+    <t>"foolishness"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: nonsense, absurdity, folly, madness"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: contract, lessen, reduce, shrink"</t>
+  </si>
+  <si>
+    <t>"get smaller"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: DEFENSE, EXCUSE, OUT, REASON"</t>
+  </si>
+  <si>
+    <t>"alibi"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: CLASS, DIVISION, RANK, TIER"</t>
+  </si>
+  <si>
+    <t>"section"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: AND, ALSO, PLUS, WITH"</t>
+  </si>
+  <si>
+    <t>"including"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BLOCK, COVER, HIDE, OBSCURE"</t>
+  </si>
+  <si>
+    <t>"conceal"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: CHANNEL, MEANS, MEDIUM, VEHICLE"</t>
+  </si>
+  <si>
+    <t>"method"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: ASSOCIATE, FELLOW, PARTNER, PEER"</t>
+  </si>
+  <si>
+    <t>"colleague"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BET, GAMBLE, RISK, STAKE"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: AGE, DAY, ERA, TIME"</t>
+  </si>
+  <si>
+    <t>"period"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BLAST, KNOCK, SLAM, TRASH"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: HIT, SMASH, SUCCESS, WINNER"</t>
+  </si>
+  <si>
+    <t>"box office victory"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BOOTY, BUM, CAN, REAR"</t>
+  </si>
+  <si>
+    <t>"backside"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: CLEAR, DRAIN, EMPTY, FLUSH"</t>
+  </si>
+  <si>
+    <t>"rid of contents"</t>
+  </si>
+  <si>
+    <t>"pop megastars"</t>
+  </si>
+  <si>
+    <t>"rooms in a game CLUE"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BASEBALL, CRICKET, FRUIT, VAMPIRE"</t>
+  </si>
+  <si>
+    <t>"bat"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BUTTON, DANCE, FLOP, LAUGH"</t>
+  </si>
+  <si>
+    <t>"belly"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: MASS, SEA, SLEW, TON"</t>
+  </si>
+  <si>
+    <t>"large amount"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: FOOT, LINE, METER, VERSE"</t>
+  </si>
+  <si>
+    <t>"units in poetry"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BREAD, BUTTER, GARLIC, PARSLEY"</t>
+  </si>
+  <si>
+    <t>"garlic bread ingredients"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: CHEST, COFFER, SAFE, VAULT"</t>
+  </si>
+  <si>
+    <t>"place to store valuables"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BUNNY, EGG, JELLY BEAN, PEEP"</t>
+  </si>
+  <si>
+    <t>"seen during Easter"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BEANBAG, CLUB, RING, TORCH"</t>
+  </si>
+  <si>
+    <t>"things a juggler juggles"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: FOXGLOVE, GUMSHOE, TURNCOAT, WINDSOCK"</t>
+  </si>
+  <si>
+    <t>"words ending in clothing"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: COLLECTIVE, COMMON, JOINT, MUTUAL"</t>
+  </si>
+  <si>
+    <t>"shared"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: DART, HEM, PLEAT, SEAM"</t>
+  </si>
+  <si>
+    <t>"things to sew"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: DOWN, INHALE, SCARF, WOLF"</t>
+  </si>
+  <si>
+    <t>"eat voraciously"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: CRADLE, EYE, MEOW, PAJAMAS"</t>
+  </si>
+  <si>
+    <t>"cat's"</t>
+  </si>
+  <si>
+    <t>"halloween purchases"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BERRY, KING, PAGE, WATERS"</t>
+  </si>
+  <si>
+    <t>"famous GUITARISTS"</t>
+  </si>
+  <si>
+    <t>"constellations"</t>
+  </si>
+  <si>
+    <t>"things that might stink"</t>
+  </si>
+  <si>
+    <t>"airplane classes"</t>
+  </si>
+  <si>
+    <t>"my mistake!"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: MOO, NEW, PIE, ROW"</t>
+  </si>
+  <si>
+    <t>"homophones of greek letters"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BAGUETTE, EMERALD, PRINCESS, RADIANT"</t>
+  </si>
+  <si>
+    <t>"gemstone cuts"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: hancock, holiday, monk, parker"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: ALPHABET, AMAZON, APPLE, META"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: GRANDE, MARS, STYLES, SWIFT"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BAD, FLY, FRESH, RAD"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: ANGEL, CLOWN, PIRATE, WITCH"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: CROWN, ROBE, TABLET, TORCH"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: CAPITOL, COLUMBIA, VIRGIN, ISLAND"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BANNER, PRINCE, STARK, WAYNE"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BIRDS, NOTORIOUS, REBECCA, ROPE"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: ALONE, CATFISH, CHOPPED, SURVIVOR"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: FLOSS, ROBOT, VOGUE, WORM"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: FORD, GRANT, LINCOLN, WILSON"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: RADIOLAB, SERIAL, UP FIRST, WTF"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: ASTER, CARPENTER, CRAVEN, WAN"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: CREATOR, DUDE, RAPPER, STALLION"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: FLAMES, KRAKEN, STARS, WILD"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: ACTION, CAMERA, CUT, LIGHTS"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BATH, DERBY, READING, SANDWICH"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: HALL, LIBRARY, LOUNGE, STUDY"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: AUNT, BEATLE, FLEE, NAT"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BUTCHER, SCRAP, TOILET, WAX"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: CAT, CHANCE, LIP, TUESDAY"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BOTTOM, CANDY, GARDEN, STAR"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: FASHION, FOOD, FORWARD, FRIENDS"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: GOOD, IMPOSSIBLE, NOTHING, WARREN"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: CANDY, COPY, KNOCKS, SELTZER"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: CORN, COUGH, MAPLE, SIMPLE"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BLUE, HARVEST, NEW, SAILOR"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BELLY, HOT, PANIC, SNOOZE"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: DUST, LIFE, SPORTS, YELLOW"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: FAMILY, FLUSH, JELLY, WE"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BLACK, DIVINE, PROP, SKETCH"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: ADAM, CARPENTER, FIRE, RED"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: DANE, LAKE, SEAL, WHITE"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BACHELOR, LILY, MAXI, MOUSE"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: CANDY, COSTUME, DECORATIONS, PUMPKIN"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: CHEESE, FEET, GARBAGE, SKUNK"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: APOLOGIES, OOPS, PARDON, SORRY"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BUSINESS, COACH, FIRST, PREMIUM"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: CYGNUS, GEMINI, ORION, PEGASUS"</t>
   </si>
 </sst>
 </file>
@@ -1962,10 +2184,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z275"/>
+  <dimension ref="A1:Z313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="178" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1975,7 +2197,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -2119,7 +2341,7 @@
     </row>
     <row r="16" spans="1:26" ht="13">
       <c r="A16" s="3" t="s">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -2494,1707 +2716,2011 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="13">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="13">
+      <c r="A64" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="13">
+      <c r="A65" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="13">
+      <c r="A66" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="13">
+      <c r="A67" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="13">
+      <c r="A68" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="13">
+      <c r="A69" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="13">
+      <c r="A70" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="13">
+      <c r="A71" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="13">
+      <c r="A72" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="13">
+      <c r="A73" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="13">
+      <c r="A74" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="13">
+      <c r="A75" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="13">
+      <c r="A76" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="13">
+      <c r="A77" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="13">
+      <c r="A78" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="13">
+      <c r="A79" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="13">
+      <c r="A80" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="13">
+      <c r="A81" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="13">
-      <c r="A64" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="13">
-      <c r="A65" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="13">
-      <c r="A66" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="13">
-      <c r="A67" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="13">
-      <c r="A68" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="13">
-      <c r="A69" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="13">
-      <c r="A70" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="13">
-      <c r="A71" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="13">
-      <c r="A72" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="13">
-      <c r="A73" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="13">
-      <c r="A74" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="13">
-      <c r="A75" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="13">
-      <c r="A76" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="13">
-      <c r="A77" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="13">
-      <c r="A78" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="13">
-      <c r="A79" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="13">
-      <c r="A80" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="13">
-      <c r="A81" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="13">
       <c r="A82" s="5" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="13">
-      <c r="A83" s="5" t="s">
-        <v>157</v>
+      <c r="A83" s="3" t="s">
+        <v>571</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="13">
-      <c r="A84" s="5" t="s">
-        <v>159</v>
+      <c r="A84" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="13">
-      <c r="A85" s="7" t="s">
-        <v>161</v>
+      <c r="A85" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="13">
-      <c r="A86" s="7" t="s">
-        <v>163</v>
+      <c r="A86" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="13">
-      <c r="A87" s="7" t="s">
-        <v>165</v>
+      <c r="A87" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="13">
-      <c r="A88" s="7" t="s">
-        <v>167</v>
+      <c r="A88" s="5" t="s">
+        <v>572</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="13">
-      <c r="A89" s="7" t="s">
-        <v>169</v>
+      <c r="A89" s="5" t="s">
+        <v>573</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>170</v>
+        <v>532</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="13">
-      <c r="A90" s="7" t="s">
-        <v>171</v>
+      <c r="A90" s="5" t="s">
+        <v>574</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="13">
       <c r="A91" s="5" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="13">
       <c r="A92" s="5" t="s">
-        <v>175</v>
+        <v>575</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="13">
       <c r="A93" s="5" t="s">
-        <v>177</v>
+        <v>576</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="13">
       <c r="A94" s="5" t="s">
-        <v>179</v>
+        <v>577</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="13">
       <c r="A95" s="5" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="13">
-      <c r="A96" s="7" t="s">
-        <v>183</v>
+      <c r="A96" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13">
       <c r="A97" s="5" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="13">
       <c r="A98" s="5" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="13">
       <c r="A99" s="5" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="13">
       <c r="A100" s="5" t="s">
-        <v>191</v>
+        <v>578</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="13">
       <c r="A101" s="5" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="13">
       <c r="A102" s="5" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="13">
       <c r="A103" s="5" t="s">
-        <v>197</v>
+        <v>579</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="13">
-      <c r="A104" s="5" t="s">
-        <v>199</v>
+      <c r="A104" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="13">
-      <c r="A105" s="5" t="s">
-        <v>201</v>
+      <c r="A105" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="13">
-      <c r="A106" s="5" t="s">
-        <v>203</v>
+      <c r="A106" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="13">
-      <c r="A107" s="5" t="s">
-        <v>205</v>
+      <c r="A107" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="13">
-      <c r="A108" s="5" t="s">
-        <v>207</v>
+      <c r="A108" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="13">
-      <c r="A109" s="5" t="s">
-        <v>209</v>
+      <c r="A109" s="7" t="s">
+        <v>580</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="13">
       <c r="A110" s="5" t="s">
-        <v>211</v>
+        <v>581</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="13">
       <c r="A111" s="5" t="s">
-        <v>213</v>
+        <v>582</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="13">
       <c r="A112" s="5" t="s">
-        <v>215</v>
+        <v>583</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="13">
       <c r="A113" s="5" t="s">
-        <v>217</v>
+        <v>584</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="13">
       <c r="A114" s="5" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="13">
-      <c r="A115" s="5" t="s">
-        <v>221</v>
+      <c r="A115" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="13">
       <c r="A116" s="5" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="13">
       <c r="A117" s="5" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="13">
-      <c r="A118" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B118" s="1" t="s">
+      <c r="A118" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="13">
+      <c r="A119" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="13">
+      <c r="A120" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="13">
+      <c r="A121" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="13">
+      <c r="A122" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="13">
+      <c r="A123" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="13">
+      <c r="A124" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="13">
+      <c r="A125" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="13">
+      <c r="A126" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="13">
+      <c r="A127" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="13">
+      <c r="A128" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="13">
+      <c r="A129" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="13">
+      <c r="A130" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="13">
+      <c r="A131" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="13">
+      <c r="A132" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="13">
+      <c r="A133" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="13">
+      <c r="A134" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="13">
+      <c r="A135" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="13">
+      <c r="A136" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="13">
+      <c r="A137" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="13">
+      <c r="A138" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="13">
+      <c r="A139" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="13">
-      <c r="A119" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="13">
-      <c r="A120" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="13">
-      <c r="A121" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="13">
-      <c r="A122" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="13">
-      <c r="A123" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A124" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A125" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A126" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A127" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A128" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A129" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A130" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A131" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A132" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A133" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A134" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A135" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A136" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A137" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A138" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A139" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A140" s="3" t="s">
-        <v>270</v>
+    <row r="140" spans="1:2" ht="13">
+      <c r="A140" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="14.25" customHeight="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="13">
       <c r="A141" s="3" t="s">
-        <v>272</v>
+        <v>569</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="14.25" customHeight="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="13">
       <c r="A142" s="3" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="14.25" customHeight="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="13">
       <c r="A143" s="3" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="14.25" customHeight="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="13">
       <c r="A144" s="3" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="14.25" customHeight="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="13">
       <c r="A145" s="3" t="s">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>281</v>
+        <v>220</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A146" s="3" t="s">
-        <v>282</v>
+      <c r="A146" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>283</v>
+        <v>222</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="14.25" customHeight="1">
       <c r="A147" s="3" t="s">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="14.25" customHeight="1">
       <c r="A148" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A149" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A150" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A151" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A152" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A153" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A154" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A155" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A156" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A157" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A158" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A159" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A160" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A161" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A162" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A163" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A164" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A165" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A166" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A167" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A168" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A169" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A170" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A171" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A172" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A173" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A174" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A175" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A176" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A177" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A178" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A179" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A180" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B148" s="3" t="s">
+    </row>
+    <row r="181" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A181" s="5" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A149" s="6" t="s">
+      <c r="B181" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B149" s="3" t="s">
+    </row>
+    <row r="182" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A182" s="5" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A150" s="8" t="s">
+      <c r="B182" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B150" s="3" t="s">
+    </row>
+    <row r="183" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A183" s="5" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A151" s="8" t="s">
+      <c r="B183" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B151" s="3" t="s">
+    </row>
+    <row r="184" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A184" s="5" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A152" s="8" t="s">
+      <c r="B184" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B152" s="3" t="s">
+    </row>
+    <row r="185" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A185" s="5" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A153" s="8" t="s">
+      <c r="B185" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B153" s="3" t="s">
+    </row>
+    <row r="186" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A186" s="5" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A154" s="8" t="s">
+      <c r="B186" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B154" s="3" t="s">
+    </row>
+    <row r="187" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A187" s="5" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A155" s="5" t="s">
+      <c r="B187" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B155" s="3" t="s">
+    </row>
+    <row r="188" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A188" s="5" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A156" s="5" t="s">
+      <c r="B188" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B156" s="3" t="s">
+    </row>
+    <row r="189" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A189" s="5" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A157" s="5" t="s">
+      <c r="B189" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B157" s="3" t="s">
+    </row>
+    <row r="190" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A190" s="5" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A158" s="5" t="s">
+      <c r="B190" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B158" s="3" t="s">
+    </row>
+    <row r="191" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A191" s="5" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A159" s="5" t="s">
+      <c r="B191" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B159" s="3" t="s">
+    </row>
+    <row r="192" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A192" s="5" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A160" s="5" t="s">
+      <c r="B192" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B160" s="3" t="s">
+    </row>
+    <row r="193" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A193" s="5" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A161" s="5" t="s">
+      <c r="B193" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B161" s="3" t="s">
+    </row>
+    <row r="194" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A194" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A195" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A196" s="5" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A162" s="5" t="s">
+      <c r="B196" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B162" s="3" t="s">
+    </row>
+    <row r="197" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A197" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A198" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A199" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A200" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A201" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A202" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A203" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A204" s="5" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A163" s="5" t="s">
+      <c r="B204" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B163" s="3" t="s">
+    </row>
+    <row r="205" spans="1:2" ht="13">
+      <c r="A205" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A164" s="5" t="s">
+      <c r="B205" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="13">
+      <c r="A206" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B206" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A165" s="5" t="s">
+    <row r="207" spans="1:2" ht="13">
+      <c r="A207" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B207" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A166" s="5" t="s">
+    <row r="208" spans="1:2" ht="13">
+      <c r="A208" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B208" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A167" s="5" t="s">
+    <row r="209" spans="1:2" ht="13">
+      <c r="A209" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B209" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A168" s="5" t="s">
+    <row r="210" spans="1:2" ht="13">
+      <c r="A210" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B210" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A169" s="5" t="s">
+    <row r="211" spans="1:2" ht="13">
+      <c r="A211" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B211" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A170" s="5" t="s">
+    <row r="212" spans="1:2" ht="13">
+      <c r="A212" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B212" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A171" s="5" t="s">
+    <row r="213" spans="1:2" ht="13">
+      <c r="A213" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B213" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="13">
-      <c r="A172" s="1" t="s">
+    <row r="214" spans="1:2" ht="13">
+      <c r="A214" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="13">
-      <c r="A173" s="3" t="s">
+      <c r="B214" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B173" s="3" t="s">
+    </row>
+    <row r="215" spans="1:2" ht="13">
+      <c r="A215" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" ht="13">
-      <c r="A174" s="3" t="s">
+      <c r="B215" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B174" s="3" t="s">
+    </row>
+    <row r="216" spans="1:2" ht="13">
+      <c r="A216" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" ht="13">
-      <c r="A175" s="3" t="s">
+      <c r="B216" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B175" s="3" t="s">
+    </row>
+    <row r="217" spans="1:2" ht="13">
+      <c r="A217" s="3" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" ht="13">
-      <c r="A176" s="3" t="s">
+      <c r="B217" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B176" s="3" t="s">
+    </row>
+    <row r="218" spans="1:2" ht="13">
+      <c r="A218" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" ht="13">
-      <c r="A177" s="3" t="s">
+      <c r="B218" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="13">
+      <c r="A219" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B219" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="13">
-      <c r="A178" s="3" t="s">
+    <row r="220" spans="1:2" ht="13">
+      <c r="A220" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B220" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="13">
-      <c r="A179" s="3" t="s">
+    <row r="221" spans="1:2" ht="13">
+      <c r="A221" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B221" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="13">
-      <c r="A180" s="3" t="s">
+    <row r="222" spans="1:2" ht="13">
+      <c r="A222" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B222" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="13">
-      <c r="A181" s="3" t="s">
+    <row r="223" spans="1:2" ht="13">
+      <c r="A223" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B223" s="3" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="13">
-      <c r="A182" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="13">
-      <c r="A183" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="13">
-      <c r="A184" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="13">
-      <c r="A185" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="13">
-      <c r="A186" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="13">
-      <c r="A187" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="13">
-      <c r="A188" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="13">
-      <c r="A189" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="13">
-      <c r="A190" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="13">
-      <c r="A191" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="13">
-      <c r="A192" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="13">
-      <c r="A193" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="13">
-      <c r="A194" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="13">
-      <c r="A195" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="13">
-      <c r="A196" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="13">
-      <c r="A197" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="13">
-      <c r="A198" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="13">
-      <c r="A199" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="13">
-      <c r="A200" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="13">
-      <c r="A201" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="13">
-      <c r="A202" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="13">
-      <c r="A203" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="13">
-      <c r="A204" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="13">
-      <c r="A205" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="13">
-      <c r="A206" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="13">
-      <c r="A207" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="13">
-      <c r="A208" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="13">
-      <c r="A209" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="13">
-      <c r="A210" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="13">
-      <c r="A211" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="13">
-      <c r="A212" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="13">
-      <c r="A213" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="13">
-      <c r="A214" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="13">
-      <c r="A215" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="13">
-      <c r="A216" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="13">
-      <c r="A217" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="13">
-      <c r="A218" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="13">
-      <c r="A219" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="13">
-      <c r="A220" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="13">
-      <c r="A221" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="13">
-      <c r="A222" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="13">
-      <c r="A223" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="13">
       <c r="A224" s="3" t="s">
-        <v>431</v>
+        <v>353</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>432</v>
+        <v>354</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="13">
-      <c r="A225" s="5" t="s">
-        <v>433</v>
+      <c r="A225" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>434</v>
+        <v>344</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="13">
-      <c r="A226" s="3" t="s">
-        <v>435</v>
+      <c r="A226" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>436</v>
+        <v>357</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="13">
       <c r="A227" s="5" t="s">
-        <v>437</v>
+        <v>358</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>438</v>
+        <v>339</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="13">
       <c r="A228" s="5" t="s">
-        <v>439</v>
+        <v>359</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>440</v>
+        <v>360</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="13">
       <c r="A229" s="5" t="s">
-        <v>441</v>
+        <v>361</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>442</v>
+        <v>362</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="13">
       <c r="A230" s="5" t="s">
-        <v>443</v>
+        <v>363</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>444</v>
+        <v>364</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="13">
       <c r="A231" s="5" t="s">
-        <v>445</v>
+        <v>365</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>446</v>
+        <v>366</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="13">
       <c r="A232" s="5" t="s">
-        <v>447</v>
+        <v>367</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>448</v>
+        <v>368</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="13">
       <c r="A233" s="5" t="s">
-        <v>449</v>
+        <v>369</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>450</v>
+        <v>370</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="13">
       <c r="A234" s="5" t="s">
-        <v>451</v>
+        <v>590</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>452</v>
+        <v>371</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="13">
       <c r="A235" s="5" t="s">
-        <v>453</v>
+        <v>372</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>454</v>
+        <v>373</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="13">
       <c r="A236" s="5" t="s">
-        <v>455</v>
+        <v>374</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>456</v>
+        <v>375</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="13">
       <c r="A237" s="5" t="s">
-        <v>457</v>
+        <v>376</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>458</v>
+        <v>377</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="13">
       <c r="A238" s="5" t="s">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>460</v>
+        <v>379</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="13">
       <c r="A239" s="5" t="s">
-        <v>461</v>
+        <v>380</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>462</v>
+        <v>381</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="13">
       <c r="A240" s="5" t="s">
-        <v>463</v>
+        <v>382</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>464</v>
+        <v>383</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="13">
       <c r="A241" s="5" t="s">
-        <v>465</v>
+        <v>384</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>466</v>
+        <v>385</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="13">
       <c r="A242" s="5" t="s">
-        <v>467</v>
+        <v>386</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>468</v>
+        <v>387</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="13">
       <c r="A243" s="5" t="s">
-        <v>469</v>
+        <v>388</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>470</v>
+        <v>389</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="13">
       <c r="A244" s="5" t="s">
-        <v>471</v>
+        <v>390</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>472</v>
+        <v>391</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="13">
-      <c r="A245" s="3" t="s">
-        <v>473</v>
+      <c r="A245" s="5" t="s">
+        <v>392</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>474</v>
+        <v>393</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="13">
       <c r="A246" s="5" t="s">
-        <v>475</v>
+        <v>394</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>476</v>
+        <v>395</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="13">
       <c r="A247" s="5" t="s">
-        <v>477</v>
+        <v>396</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>478</v>
+        <v>397</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="13">
       <c r="A248" s="5" t="s">
-        <v>479</v>
+        <v>398</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>480</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="13">
       <c r="A249" s="5" t="s">
-        <v>481</v>
+        <v>400</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>482</v>
+        <v>401</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="13">
       <c r="A250" s="5" t="s">
-        <v>483</v>
+        <v>402</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>484</v>
+        <v>403</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="13">
       <c r="A251" s="5" t="s">
-        <v>485</v>
+        <v>404</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>486</v>
+        <v>405</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="13">
       <c r="A252" s="5" t="s">
-        <v>487</v>
+        <v>406</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>488</v>
+        <v>407</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="13">
       <c r="A253" s="5" t="s">
-        <v>489</v>
+        <v>408</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="13">
       <c r="A254" s="5" t="s">
-        <v>491</v>
+        <v>567</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>492</v>
+        <v>568</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="13">
       <c r="A255" s="5" t="s">
-        <v>493</v>
+        <v>409</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>494</v>
+        <v>387</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="13">
       <c r="A256" s="5" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="13">
       <c r="A257" s="5" t="s">
-        <v>497</v>
+        <v>410</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>498</v>
+        <v>411</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="13">
-      <c r="A258" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>500</v>
+      <c r="A258" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="13">
-      <c r="A259" s="5" t="s">
-        <v>501</v>
+      <c r="A259" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>502</v>
+        <v>414</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="13">
       <c r="A260" s="5" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>504</v>
+        <v>416</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="13">
-      <c r="A261" s="5" t="s">
-        <v>505</v>
+      <c r="A261" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>506</v>
+        <v>418</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="13">
       <c r="A262" s="5" t="s">
-        <v>507</v>
+        <v>419</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>508</v>
+        <v>420</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="13">
       <c r="A263" s="5" t="s">
-        <v>509</v>
+        <v>421</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>510</v>
+        <v>422</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="13">
       <c r="A264" s="5" t="s">
-        <v>511</v>
+        <v>423</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>512</v>
+        <v>424</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="13">
       <c r="A265" s="5" t="s">
-        <v>513</v>
+        <v>425</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>514</v>
+        <v>426</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="13">
       <c r="A266" s="5" t="s">
-        <v>515</v>
+        <v>427</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>516</v>
+        <v>428</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="13">
       <c r="A267" s="5" t="s">
-        <v>517</v>
+        <v>429</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>518</v>
+        <v>430</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="13">
       <c r="A268" s="5" t="s">
-        <v>519</v>
+        <v>431</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>520</v>
+        <v>432</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="13">
       <c r="A269" s="5" t="s">
-        <v>521</v>
+        <v>433</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>522</v>
+        <v>434</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="13">
       <c r="A270" s="5" t="s">
-        <v>523</v>
+        <v>435</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>524</v>
+        <v>436</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="13">
       <c r="A271" s="5" t="s">
-        <v>525</v>
+        <v>437</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>526</v>
+        <v>438</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="13">
       <c r="A272" s="5" t="s">
-        <v>527</v>
+        <v>439</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>528</v>
+        <v>440</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="13">
       <c r="A273" s="5" t="s">
-        <v>529</v>
+        <v>441</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>530</v>
+        <v>442</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="13">
       <c r="A274" s="5" t="s">
-        <v>531</v>
+        <v>443</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>532</v>
+        <v>444</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="13">
       <c r="A275" s="5" t="s">
-        <v>533</v>
+        <v>445</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="13">
+      <c r="A276" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="13">
+      <c r="A277" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="13">
+      <c r="A278" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="13">
+      <c r="A279" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="13">
+      <c r="A280" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="13">
+      <c r="A281" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="13">
+      <c r="A282" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="13">
+      <c r="A283" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="13">
+      <c r="A284" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="13">
+      <c r="A285" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="13">
+      <c r="A286" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="13">
+      <c r="A287" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="13">
+      <c r="A288" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="13">
+      <c r="A289" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="13">
+      <c r="A290" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="13">
+      <c r="A291" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="13">
+      <c r="A292" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="13">
+      <c r="A293" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="13">
+      <c r="A294" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="13">
+      <c r="A295" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="13">
+      <c r="A296" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="13">
+      <c r="A297" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="13">
+      <c r="A298" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="13">
+      <c r="A299" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="13">
+      <c r="A300" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="13">
+      <c r="A301" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="13">
+      <c r="A302" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="13">
+      <c r="A303" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="13">
+      <c r="A304" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="13">
+      <c r="A305" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="13">
+      <c r="A306" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="13">
+      <c r="A307" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="13">
+      <c r="A308" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="13">
+      <c r="A309" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="13">
+      <c r="A310" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A311" s="5" t="s">
         <v>534</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A312" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A313" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/original_dataset.xlsx
+++ b/original_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artijain/Documents/18-789DeepGenerativeModeling/connections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80514AE-BDD6-8A42-8ABF-9B4D37AF1FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB1BB76-8111-7844-97F2-DC4EE7C7C4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10220" yWindow="760" windowWidth="20760" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="648">
   <si>
     <t>SYNONYMS</t>
   </si>
@@ -976,63 +976,33 @@
     <t>WORD_BASED</t>
   </si>
   <si>
-    <t>"These are my four associated words: clue, frown, mellow, preen</t>
-  </si>
-  <si>
     <t>"colors with their first letters changed"</t>
   </si>
   <si>
-    <t>"These are my four associated words: bassinet, cellophane, harpoon, organism</t>
-  </si>
-  <si>
     <t>"words beginning with instruments"</t>
   </si>
   <si>
-    <t>"These are my four associated words: beat, charred, leak, pee</t>
-  </si>
-  <si>
     <t>"vegetable homophones"</t>
   </si>
   <si>
-    <t>"These are my four associated words: dom, ion, ness, ship</t>
-  </si>
-  <si>
     <t>"noun suffixes"</t>
   </si>
   <si>
-    <t>"These are my four associated words: auto, beureau, demo, pluto</t>
-  </si>
-  <si>
     <t>"prefixes with -cracy"</t>
   </si>
   <si>
-    <t>"These are my four associated words: eon, ether, net, tow</t>
-  </si>
-  <si>
     <t>"Number anagrams"</t>
   </si>
   <si>
-    <t>"These are my four associated words: hug, of, oxygen, zero</t>
-  </si>
-  <si>
     <t>"What 'O' might mean"</t>
   </si>
   <si>
-    <t>"These are my four associated words: way, wee, why, whoa</t>
-  </si>
-  <si>
     <t>"W + vowel sound"</t>
   </si>
   <si>
-    <t>"These are my four associated words: answer, two, wrist, wrong</t>
-  </si>
-  <si>
     <t>"silent 'W'"</t>
   </si>
   <si>
-    <t>"These are my four associated words: adult, kiss, ten, times</t>
-  </si>
-  <si>
     <t>"what 'X' might mean"</t>
   </si>
   <si>
@@ -1105,9 +1075,6 @@
     <t>"letter homophones"</t>
   </si>
   <si>
-    <t>"These are my four associated words: kayak, lavel, mom, race car"</t>
-  </si>
-  <si>
     <t>"palindromes"</t>
   </si>
   <si>
@@ -1853,6 +1820,150 @@
   </si>
   <si>
     <t>"These are my four associated words: CYGNUS, GEMINI, ORION, PEGASUS"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: CYCLONE, GALAXY, SNAIL, SUNFLOWER"</t>
+  </si>
+  <si>
+    <t>"SPIRALS IN NATURE"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: CUT, FAKE, FREEZE, SIX"</t>
+  </si>
+  <si>
+    <t>"deep"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: FINALE, PILOT, PREMIERE, SPECIAL"</t>
+  </si>
+  <si>
+    <t>"notable tv episodes"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BABY, MOTHER, PAMPER, SPOIL"</t>
+  </si>
+  <si>
+    <t>"treat with excessive care"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BLANK, FLAKE, FORGET, SPACE"</t>
+  </si>
+  <si>
+    <t>"experience a memory lapse"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: CONCENTRATION, DEGREE, MAJOR, MINOR"</t>
+  </si>
+  <si>
+    <t>"areas of academic focus"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BLANKET, BROAD, GENERAL, SWEEPING"</t>
+  </si>
+  <si>
+    <t>"universal"</t>
+  </si>
+  <si>
+    <t>"living"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: LARGE, LEGEND, PROOF, ROOM"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: DRIB, FLOW, REED, TANG"</t>
+  </si>
+  <si>
+    <t>"animals backward"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: FACTORY, MILL, PLANT, SHOP"</t>
+  </si>
+  <si>
+    <t>"MANUFACTURING LOCATIONS"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: GRASS, HERB, MARY JANE, WEED"</t>
+  </si>
+  <si>
+    <t>"SLANG FOR CANNABIS"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: cow, doe, ewe, hen"</t>
+  </si>
+  <si>
+    <t>"female animals"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: gab, jaw, yak, yap"</t>
+  </si>
+  <si>
+    <t>"chat, informally"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: kayak, level, mom, race car"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: bib, eye, gag, pop"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: eon, ether, net, tow"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: ear, mar, mer, sat"</t>
+  </si>
+  <si>
+    <t>"starts fo planet names"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: clue, frown, mellow, preen"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: bassinet, cellophane, harpoon, organism"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: beat, charred, leak, pee"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: dom, ion, ness, ship"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: auto, beureau, demo, pluto"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: hug, of, oxygen, zero"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: way, wee, why, whoa"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: answer, two, wrist, wrong"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: adult, kiss, ten, times"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: BEAST, GENIE, SCAR, STITCH"</t>
+  </si>
+  <si>
+    <t>"DISNEY CHARACTERS"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: COSMOPOLITAN, HURRICANE, MANHATTAN, SCREWDRIVER"</t>
+  </si>
+  <si>
+    <t>"cocktails"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: can, head, john, throne"</t>
+  </si>
+  <si>
+    <t>"slang for toilet"</t>
+  </si>
+  <si>
+    <t>"These are my four associated words: JONAS, MARX, WARNER, WRIGHT"</t>
+  </si>
+  <si>
+    <t>"famous brothers"</t>
   </si>
 </sst>
 </file>
@@ -2184,10 +2295,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z313"/>
+  <dimension ref="A1:Z332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="178" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2197,7 +2308,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -2341,7 +2452,7 @@
     </row>
     <row r="16" spans="1:26" ht="13">
       <c r="A16" s="3" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -2717,63 +2828,63 @@
     </row>
     <row r="63" spans="1:2" ht="13">
       <c r="A63" s="4" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="13">
       <c r="A64" s="4" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="13">
       <c r="A65" s="4" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="13">
       <c r="A66" s="4" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="13">
       <c r="A67" s="4" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="13">
       <c r="A68" s="4" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="13">
       <c r="A69" s="4" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="13">
       <c r="A70" s="4" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>32</v>
@@ -2781,15 +2892,15 @@
     </row>
     <row r="71" spans="1:2" ht="13">
       <c r="A71" s="4" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="13">
       <c r="A72" s="4" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>88</v>
@@ -2797,1930 +2908,2082 @@
     </row>
     <row r="73" spans="1:2" ht="13">
       <c r="A73" s="4" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="13">
       <c r="A74" s="4" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="13">
       <c r="A75" s="4" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="13">
       <c r="A76" s="4" t="s">
-        <v>526</v>
+        <v>612</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>527</v>
+        <v>613</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="13">
       <c r="A77" s="4" t="s">
-        <v>538</v>
+        <v>642</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>539</v>
+        <v>643</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="13">
       <c r="A78" s="4" t="s">
-        <v>552</v>
+        <v>515</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>553</v>
+        <v>516</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="13">
       <c r="A79" s="4" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="13">
       <c r="A80" s="4" t="s">
-        <v>512</v>
+        <v>608</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>513</v>
+        <v>609</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="13">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="13">
+      <c r="A82" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="13">
+      <c r="A83" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="13">
+      <c r="A84" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="13">
-      <c r="A82" s="5" t="s">
+    <row r="85" spans="1:2" ht="13">
+      <c r="A85" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="13">
-      <c r="A83" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="13">
-      <c r="A84" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="13">
-      <c r="A85" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="13">
       <c r="A86" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="13">
+      <c r="A87" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="13">
+      <c r="A88" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="13">
+      <c r="A89" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="13">
+      <c r="A90" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="13">
+      <c r="A91" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="13">
-      <c r="A87" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="13">
-      <c r="A88" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="13">
-      <c r="A89" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="13">
-      <c r="A90" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="13">
-      <c r="A91" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="13">
       <c r="A92" s="5" t="s">
-        <v>575</v>
+        <v>129</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="13">
       <c r="A93" s="5" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="13">
       <c r="A94" s="5" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>136</v>
+        <v>521</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="13">
       <c r="A95" s="5" t="s">
-        <v>137</v>
+        <v>563</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="13">
       <c r="A96" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13">
       <c r="A97" s="5" t="s">
-        <v>141</v>
+        <v>564</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="13">
       <c r="A98" s="5" t="s">
-        <v>143</v>
+        <v>565</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="13">
       <c r="A99" s="5" t="s">
-        <v>145</v>
+        <v>566</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="13">
       <c r="A100" s="5" t="s">
-        <v>578</v>
+        <v>137</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="13">
       <c r="A101" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="13">
       <c r="A102" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="13">
       <c r="A103" s="5" t="s">
-        <v>579</v>
+        <v>143</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="13">
+      <c r="A104" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="13">
+      <c r="A105" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="13">
+      <c r="A106" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="13">
+      <c r="A107" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="13">
+      <c r="A108" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="13">
-      <c r="A104" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="13">
-      <c r="A105" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="13">
-      <c r="A106" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="13">
-      <c r="A107" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="13">
-      <c r="A108" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="13">
       <c r="A109" s="7" t="s">
-        <v>580</v>
+        <v>153</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="13">
+      <c r="A110" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="13">
+      <c r="A111" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="13">
+      <c r="A112" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="13">
+      <c r="A113" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="13">
+      <c r="A114" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="13">
-      <c r="A110" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="B110" s="3" t="s">
+    <row r="115" spans="1:2" ht="13">
+      <c r="A115" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="13">
-      <c r="A111" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="13">
-      <c r="A112" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="13">
-      <c r="A113" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="13">
-      <c r="A114" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="13">
-      <c r="A115" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="13">
       <c r="A116" s="5" t="s">
-        <v>172</v>
+        <v>571</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="13">
       <c r="A117" s="5" t="s">
-        <v>174</v>
+        <v>572</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="13">
       <c r="A118" s="5" t="s">
-        <v>176</v>
+        <v>573</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="13">
       <c r="A119" s="5" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="13">
-      <c r="A120" s="5" t="s">
-        <v>180</v>
+      <c r="A120" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="13">
       <c r="A121" s="5" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="13">
       <c r="A122" s="5" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="13">
       <c r="A123" s="5" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="13">
       <c r="A124" s="5" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="13">
       <c r="A125" s="5" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="13">
       <c r="A126" s="5" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="13">
       <c r="A127" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="13">
       <c r="A128" s="5" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="13">
       <c r="A129" s="5" t="s">
-        <v>585</v>
+        <v>188</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="13">
       <c r="A130" s="5" t="s">
-        <v>587</v>
+        <v>190</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="13">
       <c r="A131" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="13">
       <c r="A132" s="5" t="s">
-        <v>586</v>
+        <v>194</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="13">
       <c r="A133" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="13">
       <c r="A134" s="5" t="s">
-        <v>205</v>
+        <v>574</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="13">
       <c r="A135" s="5" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="13">
       <c r="A136" s="5" t="s">
-        <v>561</v>
+        <v>200</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>562</v>
+        <v>201</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="13">
       <c r="A137" s="5" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>533</v>
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="13">
       <c r="A138" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="13">
+      <c r="A139" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="13">
+      <c r="A140" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="13">
+      <c r="A141" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="13">
+      <c r="A142" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="13">
+      <c r="A143" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B143" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="13">
-      <c r="A139" s="1" t="s">
+    <row r="144" spans="1:2" ht="13">
+      <c r="A144" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="13">
-      <c r="A140" s="6" t="s">
+    <row r="145" spans="1:2" ht="13">
+      <c r="A145" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B145" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="13">
-      <c r="A141" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="13">
-      <c r="A142" s="3" t="s">
+    <row r="146" spans="1:2" ht="13">
+      <c r="A146" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="13">
+      <c r="A147" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B147" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="13">
-      <c r="A143" s="3" t="s">
+    <row r="148" spans="1:2" ht="13">
+      <c r="A148" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B148" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="13">
-      <c r="A144" s="3" t="s">
+    <row r="149" spans="1:2" ht="13">
+      <c r="A149" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="13">
+      <c r="A150" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="13">
+      <c r="A151" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="13">
+      <c r="A152" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B152" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="13">
-      <c r="A145" s="3" t="s">
+    <row r="153" spans="1:2" ht="13">
+      <c r="A153" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="13">
+      <c r="A154" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B154" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A146" s="5" t="s">
+    <row r="155" spans="1:2" ht="13">
+      <c r="A155" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A156" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B156" s="3" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A147" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A148" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A149" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A150" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A151" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A152" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A153" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A154" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A155" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A156" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="14.25" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="14.25" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="14.25" customHeight="1">
       <c r="A159" s="3" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="14.25" customHeight="1">
       <c r="A160" s="3" t="s">
-        <v>245</v>
+        <v>529</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>246</v>
+        <v>530</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="14.25" customHeight="1">
       <c r="A161" s="3" t="s">
-        <v>247</v>
+        <v>543</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>248</v>
+        <v>544</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="14.25" customHeight="1">
       <c r="A162" s="3" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="14.25" customHeight="1">
       <c r="A163" s="3" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="14.25" customHeight="1">
       <c r="A164" s="3" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="14.25" customHeight="1">
       <c r="A165" s="3" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="14.25" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="14.25" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="14.25" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="14.25" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="14.25" customHeight="1">
       <c r="A170" s="3" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="14.25" customHeight="1">
       <c r="A171" s="3" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="14.25" customHeight="1">
       <c r="A172" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A173" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A174" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A175" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A176" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A177" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A178" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A179" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A180" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A181" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A182" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B182" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A173" s="6" t="s">
+    <row r="183" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A183" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B183" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A174" s="8" t="s">
+    <row r="184" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A184" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B184" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A175" s="8" t="s">
+    <row r="185" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A185" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B185" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A176" s="8" t="s">
+    <row r="186" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A186" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B186" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A177" s="8" t="s">
+    <row r="187" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A187" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B187" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A178" s="8" t="s">
+    <row r="188" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A188" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B188" s="3" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A179" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A180" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A181" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A182" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A183" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A184" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A185" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A186" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A187" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A188" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="14.25" customHeight="1">
       <c r="A189" s="5" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="14.25" customHeight="1">
       <c r="A190" s="5" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="14.25" customHeight="1">
       <c r="A191" s="5" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="14.25" customHeight="1">
       <c r="A192" s="5" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="14.25" customHeight="1">
       <c r="A193" s="5" t="s">
-        <v>311</v>
+        <v>606</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>312</v>
+        <v>607</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="14.25" customHeight="1">
       <c r="A194" s="5" t="s">
-        <v>548</v>
+        <v>291</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>549</v>
+        <v>292</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="14.25" customHeight="1">
       <c r="A195" s="5" t="s">
-        <v>544</v>
+        <v>293</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>545</v>
+        <v>294</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="14.25" customHeight="1">
       <c r="A196" s="5" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="14.25" customHeight="1">
       <c r="A197" s="5" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>547</v>
+        <v>605</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="14.25" customHeight="1">
       <c r="A198" s="5" t="s">
-        <v>606</v>
+        <v>297</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>560</v>
+        <v>298</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="14.25" customHeight="1">
       <c r="A199" s="5" t="s">
-        <v>607</v>
+        <v>299</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>564</v>
+        <v>300</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="14.25" customHeight="1">
       <c r="A200" s="5" t="s">
-        <v>608</v>
+        <v>301</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>566</v>
+        <v>302</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="14.25" customHeight="1">
       <c r="A201" s="5" t="s">
-        <v>609</v>
+        <v>303</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>565</v>
+        <v>304</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="14.25" customHeight="1">
       <c r="A202" s="5" t="s">
-        <v>610</v>
+        <v>305</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>563</v>
+        <v>306</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="14.25" customHeight="1">
       <c r="A203" s="5" t="s">
-        <v>542</v>
+        <v>307</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>543</v>
+        <v>308</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="14.25" customHeight="1">
       <c r="A204" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A205" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A206" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A207" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A208" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A209" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A210" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A211" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A212" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A213" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A214" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A215" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A216" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A217" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A218" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B218" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="13">
-      <c r="A205" s="1" t="s">
+    <row r="219" spans="1:2" ht="13">
+      <c r="A219" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="13">
-      <c r="A206" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="13">
-      <c r="A207" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="13">
-      <c r="A208" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="13">
-      <c r="A209" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="13">
-      <c r="A210" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="13">
-      <c r="A211" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="13">
-      <c r="A212" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="13">
-      <c r="A213" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="13">
-      <c r="A214" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="13">
-      <c r="A215" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="13">
-      <c r="A216" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="13">
-      <c r="A217" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="13">
-      <c r="A218" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="13">
-      <c r="A219" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="13">
       <c r="A220" s="3" t="s">
-        <v>345</v>
+        <v>631</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="13">
       <c r="A221" s="3" t="s">
-        <v>347</v>
+        <v>632</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="13">
       <c r="A222" s="3" t="s">
-        <v>349</v>
+        <v>616</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>350</v>
+        <v>617</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="13">
       <c r="A223" s="3" t="s">
-        <v>351</v>
+        <v>633</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="13">
       <c r="A224" s="3" t="s">
-        <v>353</v>
+        <v>634</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="13">
       <c r="A225" s="3" t="s">
-        <v>355</v>
+        <v>635</v>
       </c>
       <c r="B225" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="13">
+      <c r="A226" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="13">
+      <c r="A227" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="13">
+      <c r="A228" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="13">
+      <c r="A229" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="13">
+      <c r="A230" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="13">
+      <c r="A231" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="13">
+      <c r="A232" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="13">
+      <c r="A233" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="13">
+      <c r="A234" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="13">
+      <c r="A235" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="13">
+      <c r="A236" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="13">
+      <c r="A237" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="13">
+      <c r="A238" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="13">
+      <c r="A239" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="13">
+      <c r="A240" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B240" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="13">
-      <c r="A226" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="13">
-      <c r="A227" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="13">
-      <c r="A228" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="13">
-      <c r="A229" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="13">
-      <c r="A230" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="13">
-      <c r="A231" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="13">
-      <c r="A232" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="13">
-      <c r="A233" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="13">
-      <c r="A234" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="13">
-      <c r="A235" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="13">
-      <c r="A236" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="13">
-      <c r="A237" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="13">
-      <c r="A238" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="13">
-      <c r="A239" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="13">
-      <c r="A240" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
     <row r="241" spans="1:2" ht="13">
-      <c r="A241" s="5" t="s">
-        <v>384</v>
+      <c r="A241" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="13">
       <c r="A242" s="5" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="13">
       <c r="A243" s="5" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>389</v>
+        <v>329</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="13">
       <c r="A244" s="5" t="s">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="13">
       <c r="A245" s="5" t="s">
-        <v>392</v>
+        <v>626</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="13">
       <c r="A246" s="5" t="s">
-        <v>394</v>
+        <v>627</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="13">
       <c r="A247" s="5" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="13">
       <c r="A248" s="5" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>399</v>
+        <v>355</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="13">
       <c r="A249" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="13">
       <c r="A250" s="5" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="13">
       <c r="A251" s="5" t="s">
-        <v>404</v>
+        <v>579</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="13">
       <c r="A252" s="5" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="13">
       <c r="A253" s="5" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="13">
       <c r="A254" s="5" t="s">
-        <v>567</v>
+        <v>365</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>568</v>
+        <v>366</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="13">
       <c r="A255" s="5" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="13">
       <c r="A256" s="5" t="s">
-        <v>550</v>
+        <v>369</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>551</v>
+        <v>370</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="13">
       <c r="A257" s="5" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="13">
-      <c r="A258" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>1</v>
+      <c r="A258" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="13">
-      <c r="A259" s="3" t="s">
-        <v>413</v>
+      <c r="A259" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="13">
       <c r="A260" s="5" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="13">
-      <c r="A261" s="3" t="s">
-        <v>417</v>
+      <c r="A261" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="13">
       <c r="A262" s="5" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="13">
       <c r="A263" s="5" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="13">
       <c r="A264" s="5" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="13">
       <c r="A265" s="5" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="13">
       <c r="A266" s="5" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="13">
       <c r="A267" s="5" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="13">
       <c r="A268" s="5" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="13">
       <c r="A269" s="5" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="13">
       <c r="A270" s="5" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>436</v>
+        <v>351</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="13">
       <c r="A271" s="5" t="s">
-        <v>437</v>
+        <v>556</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>438</v>
+        <v>557</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="13">
       <c r="A272" s="5" t="s">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>440</v>
+        <v>376</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="13">
       <c r="A273" s="5" t="s">
-        <v>441</v>
+        <v>539</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>442</v>
+        <v>540</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="13">
       <c r="A274" s="5" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="13">
-      <c r="A275" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>446</v>
+      <c r="A275" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="13">
-      <c r="A276" s="5" t="s">
-        <v>447</v>
+      <c r="A276" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="13">
       <c r="A277" s="5" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="13">
-      <c r="A278" s="5" t="s">
-        <v>451</v>
+      <c r="A278" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>452</v>
+        <v>407</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="13">
       <c r="A279" s="5" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="13">
-      <c r="A280" s="3" t="s">
-        <v>455</v>
+      <c r="A280" s="5" t="s">
+        <v>410</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="13">
       <c r="A281" s="5" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="13">
       <c r="A282" s="5" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="13">
       <c r="A283" s="5" t="s">
-        <v>461</v>
+        <v>416</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="13">
       <c r="A284" s="5" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>464</v>
+        <v>419</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="13">
       <c r="A285" s="5" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>466</v>
+        <v>421</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="13">
       <c r="A286" s="5" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="13">
       <c r="A287" s="5" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="13">
       <c r="A288" s="5" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="13">
       <c r="A289" s="5" t="s">
-        <v>473</v>
+        <v>428</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="13">
       <c r="A290" s="5" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="13">
       <c r="A291" s="5" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="13">
       <c r="A292" s="5" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="13">
       <c r="A293" s="5" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="13">
       <c r="A294" s="5" t="s">
-        <v>605</v>
+        <v>438</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="13">
       <c r="A295" s="5" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="13">
       <c r="A296" s="5" t="s">
-        <v>604</v>
+        <v>442</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>486</v>
+        <v>443</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="13">
-      <c r="A297" s="5" t="s">
-        <v>603</v>
+      <c r="A297" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="13">
       <c r="A298" s="5" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>489</v>
+        <v>447</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="13">
       <c r="A299" s="5" t="s">
-        <v>602</v>
+        <v>448</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="13">
       <c r="A300" s="5" t="s">
-        <v>601</v>
+        <v>450</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="13">
       <c r="A301" s="5" t="s">
-        <v>600</v>
+        <v>452</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="13">
       <c r="A302" s="5" t="s">
-        <v>599</v>
+        <v>454</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="13">
       <c r="A303" s="5" t="s">
-        <v>598</v>
+        <v>456</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="13">
       <c r="A304" s="5" t="s">
-        <v>597</v>
+        <v>458</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="13">
       <c r="A305" s="5" t="s">
-        <v>596</v>
+        <v>460</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="13">
       <c r="A306" s="5" t="s">
-        <v>595</v>
+        <v>462</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="13">
       <c r="A307" s="5" t="s">
-        <v>594</v>
+        <v>464</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="13">
       <c r="A308" s="5" t="s">
-        <v>593</v>
+        <v>466</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="13">
       <c r="A309" s="5" t="s">
-        <v>592</v>
+        <v>468</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="13">
       <c r="A310" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="13">
+      <c r="A311" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="13">
+      <c r="A312" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="13">
+      <c r="A313" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="13">
+      <c r="A314" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="13">
+      <c r="A315" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="13">
+      <c r="A316" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="B310" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A311" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A312" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A313" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="B313" s="3" t="s">
-        <v>559</v>
+      <c r="B316" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="13">
+      <c r="A317" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="13">
+      <c r="A318" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="13">
+      <c r="A319" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="13">
+      <c r="A320" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="13">
+      <c r="A321" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="13">
+      <c r="A322" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="13">
+      <c r="A323" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="13">
+      <c r="A324" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="13">
+      <c r="A325" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="13">
+      <c r="A326" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="13">
+      <c r="A327" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A328" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A329" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A330" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A331" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A332" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
